--- a/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
@@ -3237,16 +3237,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>178786</v>
+        <v>178799</v>
       </c>
       <c r="C143">
-        <v>15536</v>
+        <v>15537</v>
       </c>
       <c r="D143">
-        <v>56084</v>
+        <v>56083</v>
       </c>
       <c r="E143">
-        <v>99183</v>
+        <v>99214</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Serie</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3249,6 +3252,23 @@
         <v>99214</v>
       </c>
     </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>181569</v>
+      </c>
+      <c r="C144">
+        <v>15328</v>
+      </c>
+      <c r="D144">
+        <v>56412</v>
+      </c>
+      <c r="E144">
+        <v>101052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
+++ b/1/2/Colocaciones Reales 1986 a 2021 - Trimestral.xlsx
@@ -3257,16 +3257,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>181569</v>
+        <v>181550</v>
       </c>
       <c r="C144">
-        <v>15328</v>
+        <v>15330</v>
       </c>
       <c r="D144">
         <v>56412</v>
       </c>
       <c r="E144">
-        <v>101052</v>
+        <v>101004</v>
       </c>
     </row>
   </sheetData>
